--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_8_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-809886.4504886009</v>
+        <v>-812735.8726779288</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673432</v>
+        <v>603248.4937673433</v>
       </c>
     </row>
     <row r="9">
@@ -656,28 +656,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>161.7718856908053</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>413.784170020795</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>323.9227727643571</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>72.75222284062259</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -704,28 +704,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>54.47840257481171</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
-        <v>37.23553589840411</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>155.2114886365809</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -829,7 +829,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>6.837139712981789</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2818742419777</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -893,22 +893,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>266.357973194932</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H5" t="n">
         <v>0</v>
@@ -941,28 +941,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>54.47840257481177</v>
+        <v>0</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U5" t="n">
-        <v>251.2241675082893</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>321.3896833694397</v>
       </c>
       <c r="X5" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -993,7 +993,7 @@
         <v>104.3883541553076</v>
       </c>
       <c r="I6" t="n">
-        <v>61.4222199825082</v>
+        <v>61.42221998250818</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -1020,7 +1020,7 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>49.71123688229335</v>
+        <v>49.71123688229331</v>
       </c>
       <c r="S6" t="n">
         <v>156.5912426325231</v>
@@ -1060,7 +1060,7 @@
         <v>0</v>
       </c>
       <c r="E7" t="n">
-        <v>20.32981046154519</v>
+        <v>0</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1069,7 +1069,7 @@
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>156.1708888417951</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
@@ -1096,7 +1096,7 @@
         <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>29.12274995491434</v>
+        <v>29.1227499549143</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>225.0351054580843</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1114,10 +1114,10 @@
         <v>0</v>
       </c>
       <c r="W7" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>28.38068413028077</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1133,13 +1133,13 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>313.7041231152003</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
         <v>406.8760457417114</v>
@@ -1148,10 +1148,10 @@
         <v>412.9169039459368</v>
       </c>
       <c r="H8" t="n">
-        <v>315.0408840752156</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>118.4960408938903</v>
+        <v>61.11228450709611</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>212.651863114966</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.1547862223006</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -1291,25 +1291,25 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0</v>
+        <v>166.9207765545704</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
       </c>
       <c r="I10" t="n">
-        <v>0</v>
+        <v>123.266557879417</v>
       </c>
       <c r="J10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>129.1731816677913</v>
       </c>
       <c r="S10" t="n">
-        <v>133.7686709526562</v>
+        <v>151.1903541205167</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1348,10 +1348,10 @@
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
@@ -1379,13 +1379,13 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417109</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>54.32649042089668</v>
       </c>
       <c r="C13" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
         <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>176.839462319124</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
         <v>217.4054503272883</v>
@@ -1619,7 +1619,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G14" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H14" t="n">
         <v>283.1540821444137</v>
@@ -1765,22 +1765,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C16" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D16" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>23.10998325717172</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1831,7 +1831,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
-        <v>218.5846533520948</v>
+        <v>99.92818157411908</v>
       </c>
     </row>
     <row r="17">
@@ -1841,7 +1841,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>382.7338416634803</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C17" t="n">
         <v>365.2728917710076</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>57.24347904696186</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>27.02919805176109</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,10 +2047,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
         <v>217.4054503272883</v>
@@ -2147,7 +2147,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y20" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560527</v>
       </c>
     </row>
     <row r="21">
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>35.23631477519695</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>9.146142788179368</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C25" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D25" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2527,10 +2527,10 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
-        <v>217.4054503272883</v>
+        <v>74.99129529219145</v>
       </c>
       <c r="U25" t="n">
-        <v>245.281288022583</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2558,7 +2558,7 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D26" t="n">
-        <v>354.6830416206816</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E26" t="n">
         <v>381.9303700722618</v>
@@ -2713,10 +2713,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>101.6969570046971</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U28" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V28" t="n">
         <v>252.137643323828</v>
@@ -2840,7 +2840,7 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T29" t="n">
         <v>199.0222304576161</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>83.06560892428213</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,7 +2995,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>66.37524671012166</v>
+        <v>0</v>
       </c>
       <c r="S31" t="n">
         <v>181.0262860016446</v>
@@ -3007,7 +3007,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V31" t="n">
-        <v>252.137643323828</v>
+        <v>219.2299359583268</v>
       </c>
       <c r="W31" t="n">
         <v>286.522998336591</v>
@@ -3016,7 +3016,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y31" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32">
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T32" t="n">
         <v>199.0222304576161</v>
@@ -3190,22 +3190,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261728</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545304</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
       </c>
       <c r="G34" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
@@ -3427,22 +3427,22 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D37" t="n">
-        <v>124.330825526173</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308917</v>
       </c>
       <c r="G37" t="n">
-        <v>141.2394908002291</v>
+        <v>141.2394908002292</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652585</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3664,10 +3664,10 @@
         <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261726</v>
+        <v>124.3308255261727</v>
       </c>
       <c r="E40" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
         <v>121.1364005308915</v>
@@ -3676,10 +3676,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652584</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808199</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3916,7 +3916,7 @@
         <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652583</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808194</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4195,7 +4195,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W46" t="n">
-        <v>262.2383508445513</v>
+        <v>262.2383508445512</v>
       </c>
       <c r="X46" t="n">
         <v>201.4250078969974</v>
@@ -4304,43 +4304,43 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1801.049409392669</v>
+        <v>1567.641263708175</v>
       </c>
       <c r="C2" t="n">
-        <v>1432.086892452257</v>
+        <v>1198.678746767763</v>
       </c>
       <c r="D2" t="n">
-        <v>1268.68094731003</v>
+        <v>840.4130481610125</v>
       </c>
       <c r="E2" t="n">
-        <v>882.8926947117852</v>
+        <v>454.6247955627683</v>
       </c>
       <c r="F2" t="n">
-        <v>471.9067899221776</v>
+        <v>454.6247955627683</v>
       </c>
       <c r="G2" t="n">
-        <v>53.94298182036445</v>
+        <v>454.6247955627683</v>
       </c>
       <c r="H2" t="n">
-        <v>53.94298182036445</v>
+        <v>127.4300755987711</v>
       </c>
       <c r="I2" t="n">
         <v>53.94298182036445</v>
       </c>
       <c r="J2" t="n">
-        <v>169.7108380533142</v>
+        <v>169.7108380533139</v>
       </c>
       <c r="K2" t="n">
-        <v>463.9616490733127</v>
+        <v>463.9616490733126</v>
       </c>
       <c r="L2" t="n">
-        <v>881.2824271224074</v>
+        <v>881.2824271224079</v>
       </c>
       <c r="M2" t="n">
         <v>1362.238747280443</v>
       </c>
       <c r="N2" t="n">
-        <v>1836.345445977174</v>
+        <v>1836.345445977175</v>
       </c>
       <c r="O2" t="n">
         <v>2238.843319642689</v>
@@ -4352,28 +4352,28 @@
         <v>2697.149091018222</v>
       </c>
       <c r="R2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S2" t="n">
-        <v>2642.120401548716</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T2" t="n">
-        <v>2423.485734520778</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="U2" t="n">
-        <v>2169.72394915887</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="V2" t="n">
-        <v>1838.661061815299</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="W2" t="n">
-        <v>1838.661061815299</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="X2" t="n">
-        <v>1801.049409392669</v>
+        <v>2344.380435748108</v>
       </c>
       <c r="Y2" t="n">
-        <v>1801.049409392669</v>
+        <v>1954.241103772296</v>
       </c>
     </row>
     <row r="3">
@@ -4383,19 +4383,19 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>988.497975217083</v>
+        <v>988.4979752170825</v>
       </c>
       <c r="C3" t="n">
-        <v>814.044945935956</v>
+        <v>814.0449459359555</v>
       </c>
       <c r="D3" t="n">
-        <v>665.1105362747046</v>
+        <v>665.1105362747041</v>
       </c>
       <c r="E3" t="n">
-        <v>505.873081269249</v>
+        <v>505.8730812692486</v>
       </c>
       <c r="F3" t="n">
-        <v>359.3385232961342</v>
+        <v>359.3385232961338</v>
       </c>
       <c r="G3" t="n">
         <v>221.4284102424003</v>
@@ -4413,7 +4413,7 @@
         <v>384.4474646615928</v>
       </c>
       <c r="L3" t="n">
-        <v>670.8219208598708</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M3" t="n">
         <v>1194.968834417902</v>
@@ -4446,10 +4446,10 @@
         <v>1826.562467935839</v>
       </c>
       <c r="W3" t="n">
-        <v>1572.325111207638</v>
+        <v>1572.325111207637</v>
       </c>
       <c r="X3" t="n">
-        <v>1364.473611002105</v>
+        <v>1364.473611002104</v>
       </c>
       <c r="Y3" t="n">
         <v>1156.713312237151</v>
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.94298182036445</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="C4" t="n">
-        <v>53.94298182036445</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="D4" t="n">
-        <v>53.94298182036445</v>
+        <v>60.84918355064909</v>
       </c>
       <c r="E4" t="n">
-        <v>53.94298182036445</v>
+        <v>60.84918355064909</v>
       </c>
       <c r="F4" t="n">
-        <v>53.94298182036445</v>
+        <v>60.84918355064909</v>
       </c>
       <c r="G4" t="n">
         <v>53.94298182036445</v>
@@ -4519,19 +4519,19 @@
         <v>728.1289842064342</v>
       </c>
       <c r="U4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="V4" t="n">
-        <v>728.1289842064342</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="W4" t="n">
-        <v>438.7118141694736</v>
+        <v>438.9553738610022</v>
       </c>
       <c r="X4" t="n">
-        <v>210.7222632714563</v>
+        <v>210.9658229629848</v>
       </c>
       <c r="Y4" t="n">
-        <v>210.7222632714563</v>
+        <v>210.9658229629848</v>
       </c>
     </row>
     <row r="5">
@@ -4541,19 +4541,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1238.153685885793</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="C5" t="n">
-        <v>869.1911689453812</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="D5" t="n">
-        <v>869.1911689453812</v>
+        <v>1422.14692331494</v>
       </c>
       <c r="E5" t="n">
-        <v>483.4029163471369</v>
+        <v>1036.358670716696</v>
       </c>
       <c r="F5" t="n">
-        <v>476.4574155979334</v>
+        <v>625.3727659270879</v>
       </c>
       <c r="G5" t="n">
         <v>207.4089578252748</v>
@@ -4562,16 +4562,16 @@
         <v>207.4089578252748</v>
       </c>
       <c r="I5" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J5" t="n">
-        <v>169.7108380533141</v>
+        <v>169.7108380533142</v>
       </c>
       <c r="K5" t="n">
         <v>463.9616490733126</v>
       </c>
       <c r="L5" t="n">
-        <v>881.2824271224073</v>
+        <v>881.2824271224074</v>
       </c>
       <c r="M5" t="n">
         <v>1362.238747280443</v>
@@ -4583,34 +4583,34 @@
         <v>2238.843319642689</v>
       </c>
       <c r="P5" t="n">
-        <v>2544.691559791251</v>
+        <v>2544.691559791252</v>
       </c>
       <c r="Q5" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S5" t="n">
-        <v>2642.120401548715</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="T5" t="n">
-        <v>2642.120401548715</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="U5" t="n">
-        <v>2388.358616186806</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="V5" t="n">
-        <v>2388.358616186806</v>
+        <v>2478.514423990285</v>
       </c>
       <c r="W5" t="n">
-        <v>2388.358616186806</v>
+        <v>2153.87838018277</v>
       </c>
       <c r="X5" t="n">
-        <v>2014.892857925726</v>
+        <v>1780.41262192169</v>
       </c>
       <c r="Y5" t="n">
-        <v>1624.753525949915</v>
+        <v>1780.41262192169</v>
       </c>
     </row>
     <row r="6">
@@ -4641,28 +4641,28 @@
         <v>115.9856282673424</v>
       </c>
       <c r="I6" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J6" t="n">
-        <v>129.2001442204942</v>
+        <v>129.2001442204943</v>
       </c>
       <c r="K6" t="n">
-        <v>384.4474646615926</v>
+        <v>384.4474646615928</v>
       </c>
       <c r="L6" t="n">
-        <v>789.0633827572644</v>
+        <v>789.0633827572647</v>
       </c>
       <c r="M6" t="n">
-        <v>1313.210296315295</v>
+        <v>1313.210296315296</v>
       </c>
       <c r="N6" t="n">
-        <v>1866.936832414846</v>
+        <v>1866.936832414847</v>
       </c>
       <c r="O6" t="n">
-        <v>2307.07275543519</v>
+        <v>2188.831293537797</v>
       </c>
       <c r="P6" t="n">
-        <v>2643.317569050019</v>
+        <v>2525.076107152626</v>
       </c>
       <c r="Q6" t="n">
         <v>2697.149091018223</v>
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>243.4143268306402</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="C7" t="n">
-        <v>74.47814390273331</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="D7" t="n">
-        <v>74.47814390273331</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="E7" t="n">
-        <v>53.94298182036443</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="F7" t="n">
-        <v>53.94298182036443</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="G7" t="n">
-        <v>53.94298182036443</v>
+        <v>211.6913543878343</v>
       </c>
       <c r="H7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="I7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J7" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K7" t="n">
-        <v>110.2451748866325</v>
+        <v>110.2451748866326</v>
       </c>
       <c r="L7" t="n">
-        <v>237.8190324477909</v>
+        <v>237.819032447791</v>
       </c>
       <c r="M7" t="n">
-        <v>382.7169011658208</v>
+        <v>382.7169011658209</v>
       </c>
       <c r="N7" t="n">
-        <v>529.6040388502498</v>
+        <v>529.6040388502499</v>
       </c>
       <c r="O7" t="n">
-        <v>649.2617893594899</v>
+        <v>649.2617893594901</v>
       </c>
       <c r="P7" t="n">
-        <v>728.128984206434</v>
+        <v>728.1289842064342</v>
       </c>
       <c r="Q7" t="n">
-        <v>698.7120650600558</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="R7" t="n">
-        <v>698.7120650600558</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="S7" t="n">
-        <v>698.7120650600558</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="T7" t="n">
-        <v>471.4038777286576</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="U7" t="n">
-        <v>471.4038777286576</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="V7" t="n">
-        <v>471.4038777286576</v>
+        <v>698.7120650600561</v>
       </c>
       <c r="W7" t="n">
-        <v>471.4038777286576</v>
+        <v>409.2948950230955</v>
       </c>
       <c r="X7" t="n">
-        <v>243.4143268306402</v>
+        <v>380.6275373157412</v>
       </c>
       <c r="Y7" t="n">
-        <v>243.4143268306402</v>
+        <v>380.6275373157412</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1995.07130443919</v>
+        <v>1329.534501281987</v>
       </c>
       <c r="C8" t="n">
-        <v>1678.198452807675</v>
+        <v>1329.534501281987</v>
       </c>
       <c r="D8" t="n">
-        <v>1319.932754200924</v>
+        <v>1329.534501281987</v>
       </c>
       <c r="E8" t="n">
-        <v>1319.932754200924</v>
+        <v>943.7462486837426</v>
       </c>
       <c r="F8" t="n">
-        <v>908.9468494113166</v>
+        <v>532.7603438941351</v>
       </c>
       <c r="G8" t="n">
-        <v>491.8590676477442</v>
+        <v>115.6725621305625</v>
       </c>
       <c r="H8" t="n">
-        <v>173.6359524202536</v>
+        <v>115.6725621305625</v>
       </c>
       <c r="I8" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J8" t="n">
-        <v>75.17723181374772</v>
+        <v>242.5828808341008</v>
       </c>
       <c r="K8" t="n">
-        <v>306.8234377687612</v>
+        <v>646.0499938541462</v>
       </c>
       <c r="L8" t="n">
-        <v>859.6366960149604</v>
+        <v>1094.46325341956</v>
       </c>
       <c r="M8" t="n">
-        <v>1491.354506998272</v>
+        <v>1281.162666244967</v>
       </c>
       <c r="N8" t="n">
-        <v>1685.688719890255</v>
+        <v>1475.49687913695</v>
       </c>
       <c r="O8" t="n">
-        <v>2232.849924657332</v>
+        <v>2022.658083904027</v>
       </c>
       <c r="P8" t="n">
-        <v>2662.164970996626</v>
+        <v>2451.973130243322</v>
       </c>
       <c r="Q8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="R8" t="n">
-        <v>2697.149091018221</v>
+        <v>2697.149091018222</v>
       </c>
       <c r="S8" t="n">
         <v>2540.93405351505</v>
       </c>
       <c r="T8" t="n">
-        <v>2326.134191782761</v>
+        <v>2326.134191782762</v>
       </c>
       <c r="U8" t="n">
-        <v>2326.134191782761</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="V8" t="n">
-        <v>1995.07130443919</v>
+        <v>2072.442488527913</v>
       </c>
       <c r="W8" t="n">
-        <v>1995.07130443919</v>
+        <v>1719.673833257799</v>
       </c>
       <c r="X8" t="n">
-        <v>1995.07130443919</v>
+        <v>1719.673833257799</v>
       </c>
       <c r="Y8" t="n">
-        <v>1995.07130443919</v>
+        <v>1329.534501281987</v>
       </c>
     </row>
     <row r="9">
@@ -4872,16 +4872,16 @@
         <v>338.2052143260214</v>
       </c>
       <c r="G9" t="n">
-        <v>200.7638166852433</v>
+        <v>200.7638166852434</v>
       </c>
       <c r="H9" t="n">
-        <v>99.84783883004795</v>
+        <v>99.84783883004796</v>
       </c>
       <c r="I9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J9" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K9" t="n">
         <v>383.3713861261743</v>
@@ -4890,16 +4890,16 @@
         <v>887.7329259922928</v>
       </c>
       <c r="M9" t="n">
-        <v>1067.230262346898</v>
+        <v>1528.278275459397</v>
       </c>
       <c r="N9" t="n">
-        <v>1432.170805967367</v>
+        <v>2195.822675486408</v>
       </c>
       <c r="O9" t="n">
-        <v>1981.606814720089</v>
+        <v>2504.861470532118</v>
       </c>
       <c r="P9" t="n">
-        <v>2405.574583200926</v>
+        <v>2613.551098059417</v>
       </c>
       <c r="Q9" t="n">
         <v>2636.288039261394</v>
@@ -4936,34 +4936,34 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>498.8626623130036</v>
+        <v>515.9976843785616</v>
       </c>
       <c r="C10" t="n">
-        <v>498.8626623130036</v>
+        <v>347.0615014506548</v>
       </c>
       <c r="D10" t="n">
-        <v>348.7460229006679</v>
+        <v>347.0615014506548</v>
       </c>
       <c r="E10" t="n">
-        <v>200.8329293182748</v>
+        <v>347.0615014506548</v>
       </c>
       <c r="F10" t="n">
-        <v>53.94298182036443</v>
+        <v>347.0615014506548</v>
       </c>
       <c r="G10" t="n">
-        <v>53.94298182036443</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="H10" t="n">
-        <v>53.94298182036443</v>
+        <v>178.4546564460382</v>
       </c>
       <c r="I10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="J10" t="n">
-        <v>53.94298182036443</v>
+        <v>53.94298182036445</v>
       </c>
       <c r="K10" t="n">
-        <v>154.9909114159742</v>
+        <v>154.9909114159743</v>
       </c>
       <c r="L10" t="n">
         <v>339.8239063167927</v>
@@ -4987,25 +4987,25 @@
         <v>923.3997019991118</v>
       </c>
       <c r="S10" t="n">
-        <v>788.2798323499642</v>
+        <v>770.6821725844485</v>
       </c>
       <c r="T10" t="n">
-        <v>788.2798323499642</v>
+        <v>770.6821725844485</v>
       </c>
       <c r="U10" t="n">
-        <v>788.2798323499642</v>
+        <v>770.6821725844485</v>
       </c>
       <c r="V10" t="n">
-        <v>788.2798323499642</v>
+        <v>515.9976843785616</v>
       </c>
       <c r="W10" t="n">
-        <v>498.8626623130036</v>
+        <v>515.9976843785616</v>
       </c>
       <c r="X10" t="n">
-        <v>498.8626623130036</v>
+        <v>515.9976843785616</v>
       </c>
       <c r="Y10" t="n">
-        <v>498.8626623130036</v>
+        <v>515.9976843785616</v>
       </c>
     </row>
     <row r="11">
@@ -5027,22 +5027,22 @@
         <v>1204.759558406468</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L11" t="n">
         <v>1478.611553332387</v>
@@ -5124,22 +5124,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L12" t="n">
-        <v>93.81666304797187</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M12" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N12" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O12" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P12" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>699.73118040114</v>
+        <v>707.672526468518</v>
       </c>
       <c r="C13" t="n">
-        <v>699.73118040114</v>
+        <v>538.7363435406111</v>
       </c>
       <c r="D13" t="n">
-        <v>549.6145409888043</v>
+        <v>388.6197041282753</v>
       </c>
       <c r="E13" t="n">
-        <v>549.6145409888043</v>
+        <v>240.7066105458822</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="G13" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H13" t="n">
         <v>93.81666304797187</v>
@@ -5221,28 +5221,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2201.291660318396</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>1981.690195341337</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>1692.614968685535</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1437.930480479648</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1148.513310442687</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>920.5237595446702</v>
+        <v>983.3403484614387</v>
       </c>
       <c r="Y13" t="n">
-        <v>699.73118040114</v>
+        <v>762.5477693179085</v>
       </c>
     </row>
     <row r="14">
@@ -5258,37 +5258,37 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192571</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L14" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O14" t="n">
         <v>3640.42229106801</v>
@@ -5355,28 +5355,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L15" t="n">
-        <v>93.81666304797187</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="M15" t="n">
-        <v>680.0291294438176</v>
+        <v>1174.766565373399</v>
       </c>
       <c r="N15" t="n">
-        <v>1307.627092998424</v>
+        <v>1802.364528928006</v>
       </c>
       <c r="O15" t="n">
-        <v>1859.536823237711</v>
+        <v>2354.274259167293</v>
       </c>
       <c r="P15" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q15" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>580.8993044876688</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="C16" t="n">
-        <v>411.9631215597619</v>
+        <v>700.7543264856228</v>
       </c>
       <c r="D16" t="n">
-        <v>411.9631215597619</v>
+        <v>550.637687073287</v>
       </c>
       <c r="E16" t="n">
-        <v>264.0500279773688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F16" t="n">
-        <v>117.1600804794585</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G16" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797187</v>
@@ -5452,34 +5452,34 @@
         <v>2035.089393279802</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.76484885336</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580259</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.108249235163</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258105</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1755.431557602302</v>
       </c>
       <c r="V16" t="n">
-        <v>1500.747069396417</v>
+        <v>1500.747069396415</v>
       </c>
       <c r="W16" t="n">
-        <v>1211.329899359456</v>
+        <v>1211.329899359455</v>
       </c>
       <c r="X16" t="n">
-        <v>983.3403484614387</v>
+        <v>983.3403484614373</v>
       </c>
       <c r="Y16" t="n">
-        <v>762.5477693179085</v>
+        <v>882.4027913158625</v>
       </c>
     </row>
     <row r="17">
@@ -5504,22 +5504,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G17" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H17" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I17" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L17" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
         <v>2206.558663014778</v>
@@ -5528,7 +5528,7 @@
         <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,31 +5589,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>454.6048385560546</v>
       </c>
       <c r="L18" t="n">
-        <v>93.81666304797187</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="M18" t="n">
-        <v>680.0291294438176</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N18" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O18" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P18" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>763.7541388327634</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>705.9324428257312</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>555.8158034133954</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="E19" t="n">
-        <v>407.9027098310023</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="F19" t="n">
-        <v>261.0127623330919</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="G19" t="n">
-        <v>93.81666304797187</v>
+        <v>317.6151975578602</v>
       </c>
       <c r="H19" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5686,37 +5686,37 @@
         <v>1665.560112570817</v>
       </c>
       <c r="O19" t="n">
-        <v>2035.089393279801</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P19" t="n">
-        <v>2327.76484885336</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q19" t="n">
         <v>2446.96308358026</v>
       </c>
       <c r="R19" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S19" t="n">
-        <v>2446.96308358026</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2227.3616186032</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1938.286391947398</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1683.601903741511</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1394.184733704551</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1166.195182806533</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>945.4026036630031</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5747,13 +5747,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L20" t="n">
         <v>1478.611553332387</v>
@@ -5835,22 +5835,22 @@
         <v>427.7414352191925</v>
       </c>
       <c r="L21" t="n">
-        <v>427.7414352191925</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M21" t="n">
-        <v>1025.119922845744</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>402.7245934908939</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>402.7245934908939</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5978,16 +5978,16 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K23" t="n">
         <v>852.8523611075807</v>
@@ -5996,10 +5996,10 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.422291068009</v>
@@ -6023,13 +6023,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
         <v>2704.375866615997</v>
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N24" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O24" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>803.8641191832229</v>
+        <v>724.7519863413023</v>
       </c>
       <c r="C25" t="n">
-        <v>634.927936255316</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="D25" t="n">
-        <v>484.8112968429803</v>
+        <v>555.8158034133954</v>
       </c>
       <c r="E25" t="n">
-        <v>484.8112968429803</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F25" t="n">
-        <v>484.8112968429803</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G25" t="n">
-        <v>317.6151975578602</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H25" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
@@ -6175,22 +6175,22 @@
         <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2044.506784258106</v>
+        <v>2188.359466111739</v>
       </c>
       <c r="U25" t="n">
-        <v>1796.747907467618</v>
+        <v>1899.284239455937</v>
       </c>
       <c r="V25" t="n">
-        <v>1542.063419261731</v>
+        <v>1644.59975125005</v>
       </c>
       <c r="W25" t="n">
-        <v>1252.64624922477</v>
+        <v>1355.182581213089</v>
       </c>
       <c r="X25" t="n">
-        <v>1024.656698326753</v>
+        <v>1127.193030315072</v>
       </c>
       <c r="Y25" t="n">
-        <v>803.8641191832229</v>
+        <v>906.400451171542</v>
       </c>
     </row>
     <row r="26">
@@ -6200,10 +6200,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C26" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
         <v>1590.547811004713</v>
@@ -6218,25 +6218,25 @@
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192599</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6245,31 +6245,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,25 +6297,25 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>95.58405025273902</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
         <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>579.1554649516142</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="L27" t="n">
-        <v>1074.481071167373</v>
+        <v>352.5519571452614</v>
       </c>
       <c r="M27" t="n">
-        <v>1671.859558793925</v>
+        <v>949.9304447718133</v>
       </c>
       <c r="N27" t="n">
-        <v>2129.438138565707</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O27" t="n">
         <v>2129.438138565707</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C28" t="n">
-        <v>402.7245934908938</v>
+        <v>411.1294017454277</v>
       </c>
       <c r="D28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="E28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="F28" t="n">
-        <v>402.7245934908938</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G28" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6415,19 +6415,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U28" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V28" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X28" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y28" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="29">
@@ -6449,40 +6449,40 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192598</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111716</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075794</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L29" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M29" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N29" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O29" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R29" t="n">
         <v>4690.833152398593</v>
@@ -6540,25 +6540,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J30" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K30" t="n">
-        <v>427.7414352191925</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L30" t="n">
-        <v>904.4616873845483</v>
+        <v>1072.713683962606</v>
       </c>
       <c r="M30" t="n">
-        <v>1501.8401750111</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="N30" t="n">
-        <v>2129.438138565707</v>
+        <v>2297.690135143765</v>
       </c>
       <c r="O30" t="n">
-        <v>2129.438138565707</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q30" t="n">
         <v>2553.061288060775</v>
@@ -6595,22 +6595,22 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>513.8536007400717</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>344.9174178121648</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>344.9174178121648</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>344.9174178121648</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>344.9174178121648</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>177.7213185270447</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
         <v>93.81666304797187</v>
@@ -6619,52 +6619,52 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J31" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K31" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L31" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M31" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N31" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O31" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P31" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q31" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R31" t="n">
-        <v>2379.917379832663</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2197.062545487568</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>1977.461080510509</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1688.385853854707</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V31" t="n">
-        <v>1433.70136564882</v>
+        <v>1533.987177846418</v>
       </c>
       <c r="W31" t="n">
-        <v>1144.284195611859</v>
+        <v>1244.570007809457</v>
       </c>
       <c r="X31" t="n">
-        <v>916.2946447138415</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="Y31" t="n">
-        <v>695.5020655703114</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="32">
@@ -6686,34 +6686,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168612</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111718</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075811</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L32" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
@@ -6777,28 +6777,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797187</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K33" t="n">
-        <v>427.7414352191925</v>
+        <v>484.8243144841095</v>
       </c>
       <c r="L33" t="n">
-        <v>427.7414352191925</v>
+        <v>980.1499206998682</v>
       </c>
       <c r="M33" t="n">
-        <v>1025.119922845744</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.9575315319332</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656826</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150032</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G34" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H34" t="n">
         <v>151.373419438402</v>
@@ -6856,28 +6856,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
-        <v>198.0944824954151</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.8255460380731</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311326</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
-        <v>1344.317444979287</v>
+        <v>1344.317444979286</v>
       </c>
       <c r="N34" t="n">
         <v>1785.769117656414</v>
       </c>
       <c r="O34" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P34" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973196</v>
       </c>
       <c r="Q34" t="n">
-        <v>2639.297491717216</v>
+        <v>2639.297491717215</v>
       </c>
       <c r="R34" t="n">
         <v>2596.781734931274</v>
@@ -6889,19 +6889,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U34" t="n">
-        <v>1978.840049838287</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V34" t="n">
         <v>1748.685508594056</v>
       </c>
       <c r="W34" t="n">
-        <v>1483.798285518752</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X34" t="n">
-        <v>1280.338681582391</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y34" t="n">
-        <v>1084.076049400517</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="35">
@@ -6926,7 +6926,7 @@
         <v>793.7736536168613</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>1025.119922845744</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7075,16 +7075,16 @@
         <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580116</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345476</v>
+        <v>268.5553036345477</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
@@ -7096,10 +7096,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7163,22 +7163,22 @@
         <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I38" t="n">
         <v>95.34095638192593</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K38" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
         <v>2206.55866301478</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>427.7414352191925</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>427.7414352191925</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>1025.119922845744</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,19 +7306,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319324</v>
+        <v>926.9575315319327</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656818</v>
+        <v>782.551295565682</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150025</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942657</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G40" t="n">
         <v>268.5553036345476</v>
@@ -7327,16 +7327,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I40" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J40" t="n">
-        <v>198.0944824954147</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380726</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
-        <v>898.265941231132</v>
+        <v>898.2659412311325</v>
       </c>
       <c r="M40" t="n">
         <v>1344.317444979286</v>
@@ -7366,7 +7366,7 @@
         <v>1978.840049838286</v>
       </c>
       <c r="V40" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W40" t="n">
         <v>1483.798285518751</v>
@@ -7391,16 +7391,16 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H41" t="n">
         <v>93.81666304797187</v>
@@ -7409,10 +7409,10 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J41" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>409.1360811687896</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>904.4616873845483</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>1501.8401750111</v>
+        <v>1373.553594266881</v>
       </c>
       <c r="N42" t="n">
-        <v>2129.438138565707</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O42" t="n">
-        <v>2129.438138565707</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
         <v>2553.061288060775</v>
@@ -7543,37 +7543,37 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656811</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E43" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580109</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345472</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H43" t="n">
-        <v>151.3734194384015</v>
+        <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954148</v>
       </c>
       <c r="K43" t="n">
-        <v>483.8255460380728</v>
+        <v>483.8255460380727</v>
       </c>
       <c r="L43" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311322</v>
       </c>
       <c r="M43" t="n">
         <v>1344.317444979286</v>
@@ -7591,7 +7591,7 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R43" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S43" t="n">
         <v>2438.456847547834</v>
@@ -7600,19 +7600,19 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U43" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V43" t="n">
         <v>1748.685508594055</v>
       </c>
       <c r="W43" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X43" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y43" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="44">
@@ -7734,13 +7734,13 @@
         <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1671.859558793925</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="N45" t="n">
-        <v>2299.457522348532</v>
+        <v>1577.52840832642</v>
       </c>
       <c r="O45" t="n">
-        <v>2553.061288060775</v>
+        <v>2129.438138565707</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319321</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656815</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.964603115002</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942651</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580111</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
@@ -7807,10 +7807,10 @@
         <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380723</v>
       </c>
       <c r="L46" t="n">
-        <v>898.2659412311323</v>
+        <v>898.2659412311318</v>
       </c>
       <c r="M46" t="n">
         <v>1344.317444979286</v>
@@ -8061,10 +8061,10 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>251.4045252050816</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>465.7050637499999</v>
+        <v>346.2692436516223</v>
       </c>
       <c r="N3" t="n">
         <v>479.3423743435536</v>
@@ -8234,7 +8234,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q5" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599048</v>
       </c>
       <c r="R5" t="n">
         <v>65.71641987298243</v>
@@ -8307,13 +8307,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O6" t="n">
-        <v>393.8623192767295</v>
+        <v>274.4264991783522</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
       </c>
       <c r="Q6" t="n">
-        <v>90.6414676374722</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
         <v>45.52166981132082</v>
@@ -8450,16 +8450,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>150.5889407883042</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L8" t="n">
-        <v>417.6612145504504</v>
+        <v>312.2066704284449</v>
       </c>
       <c r="M8" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N8" t="n">
         <v>0</v>
@@ -8471,7 +8471,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q8" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8538,19 +8538,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N9" t="n">
-        <v>167.9634363311153</v>
+        <v>473.6238973478236</v>
       </c>
       <c r="O9" t="n">
-        <v>393.8623192767295</v>
+        <v>151.0368508858077</v>
       </c>
       <c r="P9" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8696,7 +8696,7 @@
         <v>0</v>
       </c>
       <c r="M11" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N11" t="n">
         <v>0</v>
@@ -8933,7 +8933,7 @@
         <v>0</v>
       </c>
       <c r="M14" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -9404,7 +9404,7 @@
         <v>0</v>
       </c>
       <c r="L20" t="n">
-        <v>5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
@@ -9659,7 +9659,7 @@
         <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>4.263256414560601e-13</v>
+        <v>0</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -10112,7 +10112,7 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>-1.477928890381008e-12</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10355,7 +10355,7 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="N32" t="n">
         <v>0</v>
@@ -22544,28 +22544,28 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>192.9111559298777</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>250.2014231869203</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>413.784170020795</v>
       </c>
       <c r="H2" t="n">
-        <v>323.9227727643571</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>79.17909340423866</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22592,28 +22592,28 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S2" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>216.4483203576578</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -23413,25 +23413,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>125.5054897610406</v>
       </c>
       <c r="C13" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
         <v>81.26583631856553</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>66.37524671012339</v>
       </c>
       <c r="S13" t="n">
-        <v>4.186823682522345</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23653,22 +23653,22 @@
         <v>0</v>
       </c>
       <c r="C16" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D16" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E16" t="n">
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>142.4141550350971</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>81.26583631856553</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>118.6564717779757</v>
       </c>
     </row>
     <row r="17">
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>110.003342051666</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>121.5862749664513</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,10 +23935,10 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>144.5956654067404</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>139.469330230033</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24361,28 +24361,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C25" t="n">
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24415,10 +24415,10 @@
         <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>142.4141550350968</v>
       </c>
       <c r="U25" t="n">
-        <v>40.90318636666117</v>
+        <v>0</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,10 +24601,10 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>65.54986409393075</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
         <v>146.4339626465692</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,28 +24835,28 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>57.22910392194173</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856552</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24883,7 +24883,7 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
         <v>0</v>
@@ -24895,7 +24895,7 @@
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>32.90770736550124</v>
       </c>
       <c r="W31" t="n">
         <v>0</v>
@@ -24904,7 +24904,7 @@
         <v>0</v>
       </c>
       <c r="Y31" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="32">
@@ -25081,7 +25081,7 @@
         <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>-7.693845688338093e-13</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
         <v>0</v>
@@ -25315,7 +25315,7 @@
         <v>0</v>
       </c>
       <c r="D37" t="n">
-        <v>-3.979039320256561e-13</v>
+        <v>0</v>
       </c>
       <c r="E37" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>1195420.786262858</v>
+        <v>1195420.786262857</v>
       </c>
     </row>
     <row r="6">
@@ -26317,10 +26317,10 @@
         <v>225786.486712678</v>
       </c>
       <c r="D2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="E2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="F2" t="n">
         <v>221965.3149147517</v>
@@ -26329,22 +26329,22 @@
         <v>221965.3149147517</v>
       </c>
       <c r="H2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="I2" t="n">
         <v>221965.3149147517</v>
       </c>
       <c r="J2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="K2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="L2" t="n">
         <v>225786.486712678</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
         <v>225786.4867126781</v>
@@ -26353,7 +26353,7 @@
         <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.4867126781</v>
+        <v>225786.486712678</v>
       </c>
     </row>
     <row r="3">
@@ -26369,10 +26369,10 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>184756.2785481118</v>
+        <v>184756.2785481116</v>
       </c>
       <c r="E3" t="n">
-        <v>771052.6913808065</v>
+        <v>771052.6913808064</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,16 +26387,16 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>176423.2191925929</v>
+        <v>176423.219192593</v>
       </c>
       <c r="K3" t="n">
-        <v>1.655303094594274e-10</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363178</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
-        <v>124208.5107080584</v>
+        <v>124208.5107080585</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26418,46 +26418,46 @@
         <v>127713.0035258958</v>
       </c>
       <c r="C4" t="n">
-        <v>209922.4154630334</v>
+        <v>209922.4154630333</v>
       </c>
       <c r="D4" t="n">
-        <v>176266.9759012794</v>
+        <v>176266.9759012793</v>
       </c>
       <c r="E4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="F4" t="n">
+        <v>5677.536566682751</v>
+      </c>
+      <c r="G4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="F4" t="n">
+      <c r="H4" t="n">
+        <v>5677.536566682786</v>
+      </c>
+      <c r="I4" t="n">
         <v>5677.536566682745</v>
       </c>
-      <c r="G4" t="n">
-        <v>5677.536566682744</v>
-      </c>
-      <c r="H4" t="n">
-        <v>5677.536566682753</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5677.536566682751</v>
-      </c>
       <c r="J4" t="n">
-        <v>5677.536566682807</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="K4" t="n">
-        <v>5677.53656668272</v>
+        <v>5677.536566682745</v>
       </c>
       <c r="L4" t="n">
         <v>13668.39582977621</v>
       </c>
       <c r="M4" t="n">
+        <v>13668.39582977621</v>
+      </c>
+      <c r="N4" t="n">
+        <v>13668.3958297762</v>
+      </c>
+      <c r="O4" t="n">
+        <v>13668.39582977621</v>
+      </c>
+      <c r="P4" t="n">
         <v>13668.39582977622</v>
-      </c>
-      <c r="N4" t="n">
-        <v>13668.39582977621</v>
-      </c>
-      <c r="O4" t="n">
-        <v>13668.39582977623</v>
-      </c>
-      <c r="P4" t="n">
-        <v>13668.39582977621</v>
       </c>
     </row>
     <row r="5">
@@ -26470,10 +26470,10 @@
         <v>82859.07806340946</v>
       </c>
       <c r="C5" t="n">
-        <v>82859.07806340944</v>
+        <v>82859.07806340946</v>
       </c>
       <c r="D5" t="n">
-        <v>87562.04517084677</v>
+        <v>87562.0451708468</v>
       </c>
       <c r="E5" t="n">
         <v>101122.5298239071</v>
@@ -26519,40 +26519,40 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-614362.6058200956</v>
+        <v>-614722.6888358131</v>
       </c>
       <c r="C6" t="n">
-        <v>-66995.00681376462</v>
+        <v>-66995.0068137648</v>
       </c>
       <c r="D6" t="n">
-        <v>-222798.8129075599</v>
+        <v>-222798.8129075597</v>
       </c>
       <c r="E6" t="n">
-        <v>-655887.4428566445</v>
+        <v>-655922.18078208</v>
       </c>
       <c r="F6" t="n">
-        <v>115165.2485241618</v>
+        <v>115130.5105987261</v>
       </c>
       <c r="G6" t="n">
-        <v>115165.2485241618</v>
+        <v>115130.5105987261</v>
       </c>
       <c r="H6" t="n">
-        <v>115165.2485241617</v>
+        <v>115130.5105987261</v>
       </c>
       <c r="I6" t="n">
-        <v>115165.2485241618</v>
+        <v>115130.5105987262</v>
       </c>
       <c r="J6" t="n">
-        <v>-61257.97066843115</v>
+        <v>-61292.70859386676</v>
       </c>
       <c r="K6" t="n">
-        <v>115165.2485241616</v>
+        <v>115130.5105987262</v>
       </c>
       <c r="L6" t="n">
-        <v>89526.25703535462</v>
+        <v>89526.25703535459</v>
       </c>
       <c r="M6" t="n">
-        <v>-15254.53567907203</v>
+        <v>-15254.53567907204</v>
       </c>
       <c r="N6" t="n">
         <v>108953.9750289865</v>
@@ -26561,7 +26561,7 @@
         <v>108953.9750289865</v>
       </c>
       <c r="P6" t="n">
-        <v>108953.9750289865</v>
+        <v>108953.9750289864</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O2" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P2" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
     <row r="3">
@@ -26738,7 +26738,7 @@
         <v>377.7436642170866</v>
       </c>
       <c r="C3" t="n">
-        <v>377.7436642170864</v>
+        <v>377.7436642170866</v>
       </c>
       <c r="D3" t="n">
         <v>593.4761003380651</v>
@@ -26790,10 +26790,10 @@
         <v>674.2872727545556</v>
       </c>
       <c r="C4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="D4" t="n">
-        <v>674.2872727545554</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26935,7 +26935,7 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26963,7 +26963,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>215.7324361209787</v>
+        <v>215.7324361209784</v>
       </c>
       <c r="E3" t="n">
         <v>774.4994000036087</v>
@@ -26984,7 +26984,7 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>674.2872727545553</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>498.421015345093</v>
+        <v>498.4210153450928</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27388,7 +27388,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>156.6746225547911</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -27397,7 +27397,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>151.9313162448613</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27436,13 +27436,13 @@
         <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>332.4955647800649</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>24.62049154535643</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
@@ -27549,7 +27549,7 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>167.3098022590509</v>
+        <v>160.4726625460691</v>
       </c>
       <c r="H4" t="n">
         <v>156.1708888417951</v>
@@ -27591,13 +27591,13 @@
         <v>225.0351054580843</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2818742419777</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -27613,22 +27613,22 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>354.683041620683</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>147.426196825863</v>
+        <v>0</v>
       </c>
       <c r="H5" t="n">
         <v>323.9227727643571</v>
@@ -27661,28 +27661,28 @@
         <v>0</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>54.47840257481171</v>
       </c>
       <c r="S5" t="n">
         <v>174.4157128089715</v>
       </c>
       <c r="T5" t="n">
-        <v>216.4483203576578</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>251.2241675082893</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>27.85128534797332</v>
       </c>
       <c r="X5" t="n">
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27780,7 +27780,7 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
-        <v>126.104152185024</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
         <v>145.4210480229312</v>
@@ -27789,13 +27789,13 @@
         <v>167.3098022590509</v>
       </c>
       <c r="H7" t="n">
-        <v>156.1708888417951</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>134.9656217923383</v>
+        <v>134.9656217923382</v>
       </c>
       <c r="J7" t="n">
-        <v>45.19995918853703</v>
+        <v>45.199959188537</v>
       </c>
       <c r="K7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>212.1455389500189</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>225.0351054580843</v>
       </c>
       <c r="U7" t="n">
         <v>286.2818742419777</v>
@@ -27834,10 +27834,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>197.3289712587564</v>
       </c>
       <c r="Y7" t="n">
         <v>218.5846533520948</v>
@@ -27853,13 +27853,13 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>51.56876865580728</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
-        <v>0</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F8" t="n">
         <v>0</v>
@@ -27868,10 +27868,10 @@
         <v>0</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>315.0408840752156</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>57.38375638679419</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.1547862223006</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28011,25 +28011,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>166.9207765545704</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>152.7120966692326</v>
       </c>
       <c r="I10" t="n">
-        <v>123.266557879417</v>
+        <v>0</v>
       </c>
       <c r="J10" t="n">
         <v>17.69584188176898</v>
@@ -28059,7 +28059,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>71.59721094746249</v>
+        <v>54.17552777960196</v>
       </c>
       <c r="T10" t="n">
         <v>223.3729047207587</v>
@@ -28068,10 +28068,10 @@
         <v>286.260654658097</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
         <v>225.7096553890372</v>
@@ -28099,13 +28099,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -28339,7 +28339,7 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -28561,7 +28561,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2.842170943040401e-13</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
@@ -28867,7 +28867,7 @@
         <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
     </row>
     <row r="21">
@@ -29278,7 +29278,7 @@
         <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>1.364242052659392e-12</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203972</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.2846474920397</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203975</v>
       </c>
     </row>
   </sheetData>
@@ -31276,46 +31276,46 @@
         <v>0</v>
       </c>
       <c r="G5" t="n">
-        <v>1.518567494340045</v>
+        <v>1.518567494340046</v>
       </c>
       <c r="H5" t="n">
-        <v>15.55202935140999</v>
+        <v>15.55202935141</v>
       </c>
       <c r="I5" t="n">
-        <v>58.54457332554463</v>
+        <v>58.54457332554467</v>
       </c>
       <c r="J5" t="n">
-        <v>128.8865178727435</v>
+        <v>128.8865178727436</v>
       </c>
       <c r="K5" t="n">
-        <v>193.1674799081576</v>
+        <v>193.1674799081577</v>
       </c>
       <c r="L5" t="n">
-        <v>239.6413398630668</v>
+        <v>239.6413398630669</v>
       </c>
       <c r="M5" t="n">
-        <v>266.6471645405366</v>
+        <v>266.6471645405367</v>
       </c>
       <c r="N5" t="n">
-        <v>270.9617944338302</v>
+        <v>270.9617944338304</v>
       </c>
       <c r="O5" t="n">
-        <v>255.8615389119864</v>
+        <v>255.8615389119866</v>
       </c>
       <c r="P5" t="n">
-        <v>218.3719038954665</v>
+        <v>218.3719038954667</v>
       </c>
       <c r="Q5" t="n">
-        <v>163.9882055044136</v>
+        <v>163.9882055044137</v>
       </c>
       <c r="R5" t="n">
-        <v>95.39071536633791</v>
+        <v>95.39071536633797</v>
       </c>
       <c r="S5" t="n">
-        <v>34.6043567772738</v>
+        <v>34.60435677727382</v>
       </c>
       <c r="T5" t="n">
-        <v>6.647529206473549</v>
+        <v>6.647529206473553</v>
       </c>
       <c r="U5" t="n">
         <v>0.1214853995472036</v>
@@ -31355,49 +31355,49 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8125052400141104</v>
+        <v>0.812505240014111</v>
       </c>
       <c r="H6" t="n">
-        <v>7.847090081188909</v>
+        <v>7.847090081188914</v>
       </c>
       <c r="I6" t="n">
-        <v>27.97441286890687</v>
+        <v>27.97441286890689</v>
       </c>
       <c r="J6" t="n">
-        <v>76.76392708396472</v>
+        <v>76.76392708396476</v>
       </c>
       <c r="K6" t="n">
-        <v>131.2017781649101</v>
+        <v>131.2017781649102</v>
       </c>
       <c r="L6" t="n">
-        <v>176.4169820478006</v>
+        <v>176.4169820478007</v>
       </c>
       <c r="M6" t="n">
-        <v>205.8702969983121</v>
+        <v>205.8702969983122</v>
       </c>
       <c r="N6" t="n">
-        <v>211.3190711736699</v>
+        <v>211.31907117367</v>
       </c>
       <c r="O6" t="n">
-        <v>193.3156655923046</v>
+        <v>193.3156655923047</v>
       </c>
       <c r="P6" t="n">
-        <v>155.1528646479576</v>
+        <v>155.1528646479577</v>
       </c>
       <c r="Q6" t="n">
-        <v>103.7155811639064</v>
+        <v>103.7155811639065</v>
       </c>
       <c r="R6" t="n">
-        <v>50.44659727034978</v>
+        <v>50.44659727034982</v>
       </c>
       <c r="S6" t="n">
-        <v>15.09192847131472</v>
+        <v>15.09192847131473</v>
       </c>
       <c r="T6" t="n">
-        <v>3.274966296372663</v>
+        <v>3.274966296372665</v>
       </c>
       <c r="U6" t="n">
-        <v>0.05345429210619149</v>
+        <v>0.05345429210619153</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -31434,49 +31434,49 @@
         <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>0.6811770994078606</v>
+        <v>0.6811770994078611</v>
       </c>
       <c r="H7" t="n">
-        <v>6.056283665644438</v>
+        <v>6.056283665644442</v>
       </c>
       <c r="I7" t="n">
-        <v>20.48485313492003</v>
+        <v>20.48485313492005</v>
       </c>
       <c r="J7" t="n">
-        <v>48.15922092813575</v>
+        <v>48.15922092813577</v>
       </c>
       <c r="K7" t="n">
-        <v>79.14039391302234</v>
+        <v>79.14039391302239</v>
       </c>
       <c r="L7" t="n">
-        <v>101.2724571246923</v>
+        <v>101.2724571246924</v>
       </c>
       <c r="M7" t="n">
-        <v>106.7776065917249</v>
+        <v>106.777606591725</v>
       </c>
       <c r="N7" t="n">
-        <v>104.2386737666593</v>
+        <v>104.2386737666594</v>
       </c>
       <c r="O7" t="n">
-        <v>96.28128674175838</v>
+        <v>96.28128674175844</v>
       </c>
       <c r="P7" t="n">
-        <v>82.38527391383795</v>
+        <v>82.38527391383801</v>
       </c>
       <c r="Q7" t="n">
-        <v>57.03929329678004</v>
+        <v>57.03929329678008</v>
       </c>
       <c r="R7" t="n">
-        <v>30.62819939701162</v>
+        <v>30.62819939701163</v>
       </c>
       <c r="S7" t="n">
-        <v>11.87105908695335</v>
+        <v>11.87105908695336</v>
       </c>
       <c r="T7" t="n">
-        <v>2.910483970197222</v>
+        <v>2.910483970197224</v>
       </c>
       <c r="U7" t="n">
-        <v>0.03715511451315608</v>
+        <v>0.0371551145131561</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31844,10 +31844,10 @@
         <v>137.841438974359</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>399.9031616963283</v>
       </c>
       <c r="M12" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N12" t="n">
         <v>765.2790490071785</v>
@@ -31859,10 +31859,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S12" t="n">
         <v>54.65449286742438</v>
@@ -32075,16 +32075,16 @@
         <v>99.52238</v>
       </c>
       <c r="J15" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>138.5543797798742</v>
       </c>
       <c r="M15" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N15" t="n">
         <v>765.2790490071785</v>
@@ -32093,13 +32093,13 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P15" t="n">
-        <v>561.8765786214698</v>
+        <v>334.7693860946154</v>
       </c>
       <c r="Q15" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R15" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S15" t="n">
         <v>54.65449286742438</v>
@@ -32309,19 +32309,19 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>349.3304751113902</v>
       </c>
       <c r="L18" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
-        <v>734.2678383622665</v>
+        <v>142.1340339220183</v>
       </c>
       <c r="N18" t="n">
         <v>765.2790490071785</v>
@@ -32333,10 +32333,10 @@
         <v>561.8765786214698</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32555,25 +32555,25 @@
         <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>745.5466476862121</v>
+        <v>597.1709559744729</v>
       </c>
       <c r="N21" t="n">
-        <v>416.7024900153332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32783,28 +32783,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J24" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>620.0899880277084</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N24" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -33026,19 +33026,19 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L27" t="n">
-        <v>638.8832749473072</v>
+        <v>246.9596973201446</v>
       </c>
       <c r="M27" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
-        <v>593.5422977113961</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
         <v>561.8765786214698</v>
@@ -33172,7 +33172,7 @@
         <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H29" t="n">
         <v>56.32071997135341</v>
@@ -33184,31 +33184,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K29" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L29" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M29" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N29" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O29" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P29" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q29" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R29" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S29" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T29" t="n">
         <v>24.07361910651528</v>
@@ -33251,49 +33251,49 @@
         <v>0</v>
       </c>
       <c r="G30" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H30" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
         <v>99.52238</v>
       </c>
       <c r="J30" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K30" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L30" t="n">
-        <v>620.0899880277084</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M30" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O30" t="n">
-        <v>142.5962444444444</v>
+        <v>164.9290651940687</v>
       </c>
       <c r="P30" t="n">
-        <v>561.8765786214699</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
         <v>145.679503963964</v>
       </c>
       <c r="S30" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T30" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U30" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V30" t="n">
         <v>0</v>
@@ -33333,25 +33333,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H31" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I31" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J31" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K31" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M31" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N31" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O31" t="n">
         <v>348.6767717920058</v>
@@ -33360,19 +33360,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q31" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R31" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S31" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T31" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U31" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -33409,7 +33409,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H32" t="n">
         <v>56.32071997135341</v>
@@ -33421,31 +33421,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K32" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L32" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M32" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N32" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O32" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P32" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S32" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T32" t="n">
         <v>24.07361910651528</v>
@@ -33488,49 +33488,49 @@
         <v>0</v>
       </c>
       <c r="G33" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H33" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>475.1391886422586</v>
+        <v>381.6404378718165</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>745.5466476862122</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
-        <v>416.7024900153327</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437244</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214699</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.5996128485291</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T33" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U33" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V33" t="n">
         <v>0</v>
@@ -33570,25 +33570,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H34" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I34" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J34" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K34" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L34" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M34" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N34" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O34" t="n">
         <v>348.6767717920058</v>
@@ -33597,19 +33597,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q34" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R34" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S34" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T34" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
-        <v>416.7024900153332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N39" t="n">
-        <v>416.7024900153332</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>456.3459017226598</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>745.5466476862121</v>
+        <v>444.2274915982894</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>142.5962444444444</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>139.9817740860215</v>
@@ -34454,16 +34454,16 @@
         <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>745.5466476862121</v>
+        <v>650.2626573149953</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -34781,10 +34781,10 @@
         <v>257.8255762031298</v>
       </c>
       <c r="L3" t="n">
-        <v>289.2671274730081</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M3" t="n">
-        <v>529.4413268262938</v>
+        <v>410.0055067279162</v>
       </c>
       <c r="N3" t="n">
         <v>559.3197334338902</v>
@@ -34936,25 +34936,25 @@
         <v>116.937228518131</v>
       </c>
       <c r="K5" t="n">
-        <v>297.2230414343418</v>
+        <v>297.2230414343419</v>
       </c>
       <c r="L5" t="n">
-        <v>421.53613944353</v>
+        <v>421.5361394435301</v>
       </c>
       <c r="M5" t="n">
-        <v>485.8144648060963</v>
+        <v>485.8144648060965</v>
       </c>
       <c r="N5" t="n">
-        <v>478.8956552492235</v>
+        <v>478.8956552492236</v>
       </c>
       <c r="O5" t="n">
-        <v>406.563508753045</v>
+        <v>406.5635087530452</v>
       </c>
       <c r="P5" t="n">
-        <v>308.9376163116796</v>
+        <v>308.9376163116798</v>
       </c>
       <c r="Q5" t="n">
-        <v>153.9975062898688</v>
+        <v>153.997506289869</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -35012,28 +35012,28 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>76.01733575770686</v>
+        <v>76.0173357577069</v>
       </c>
       <c r="K6" t="n">
-        <v>257.8255762031297</v>
+        <v>257.8255762031298</v>
       </c>
       <c r="L6" t="n">
-        <v>408.7029475713856</v>
+        <v>408.7029475713857</v>
       </c>
       <c r="M6" t="n">
-        <v>529.4413268262937</v>
+        <v>529.4413268262938</v>
       </c>
       <c r="N6" t="n">
         <v>559.3197334338902</v>
       </c>
       <c r="O6" t="n">
-        <v>444.5817404245897</v>
+        <v>325.1459203262125</v>
       </c>
       <c r="P6" t="n">
         <v>339.6412258735646</v>
       </c>
       <c r="Q6" t="n">
-        <v>54.37527471535713</v>
+        <v>173.8110948137341</v>
       </c>
       <c r="R6" t="n">
         <v>0</v>
@@ -35094,22 +35094,22 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>56.87090208713948</v>
+        <v>56.87090208713954</v>
       </c>
       <c r="L7" t="n">
         <v>128.8624823850085</v>
       </c>
       <c r="M7" t="n">
-        <v>146.3614835535655</v>
+        <v>146.3614835535656</v>
       </c>
       <c r="N7" t="n">
-        <v>148.3708461458879</v>
+        <v>148.370846145888</v>
       </c>
       <c r="O7" t="n">
         <v>120.8664146557981</v>
       </c>
       <c r="P7" t="n">
-        <v>79.66383317873144</v>
+        <v>79.66383317873149</v>
       </c>
       <c r="Q7" t="n">
         <v>0</v>
@@ -35170,16 +35170,16 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>21.44873736705384</v>
+        <v>190.5453525391276</v>
       </c>
       <c r="K8" t="n">
-        <v>233.9860666212257</v>
+        <v>407.5425384040863</v>
       </c>
       <c r="L8" t="n">
-        <v>558.3972305517163</v>
+        <v>452.9426864297107</v>
       </c>
       <c r="M8" t="n">
-        <v>638.0987989730422</v>
+        <v>188.5852654802098</v>
       </c>
       <c r="N8" t="n">
         <v>196.2971847393761</v>
@@ -35191,7 +35191,7 @@
         <v>433.6515619588832</v>
       </c>
       <c r="Q8" t="n">
-        <v>35.33749497130819</v>
+        <v>247.6524856312129</v>
       </c>
       <c r="R8" t="n">
         <v>0</v>
@@ -35258,19 +35258,19 @@
         <v>509.4561008748672</v>
       </c>
       <c r="M9" t="n">
-        <v>181.3104407622271</v>
+        <v>647.0155045122269</v>
       </c>
       <c r="N9" t="n">
-        <v>368.6268117378473</v>
+        <v>674.2872727545556</v>
       </c>
       <c r="O9" t="n">
-        <v>554.9858674269929</v>
+        <v>312.1603990360709</v>
       </c>
       <c r="P9" t="n">
-        <v>428.2502711927643</v>
+        <v>109.7875025528271</v>
       </c>
       <c r="Q9" t="n">
-        <v>233.0438950105733</v>
+        <v>22.96660727472423</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35416,7 +35416,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N11" t="n">
         <v>751.8584478193516</v>
@@ -35492,10 +35492,10 @@
         <v>0</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>261.3487819164541</v>
       </c>
       <c r="M12" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
         <v>633.9373369238452</v>
@@ -35507,10 +35507,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35653,7 +35653,7 @@
         <v>632.0799921462688</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902948</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N14" t="n">
         <v>751.8584478193516</v>
@@ -35723,16 +35723,16 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>0</v>
       </c>
       <c r="M15" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
         <v>633.9373369238452</v>
@@ -35741,13 +35741,13 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P15" t="n">
-        <v>427.9021712071395</v>
+        <v>200.7949786802852</v>
       </c>
       <c r="Q15" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35820,7 +35820,7 @@
         <v>373.2618997060454</v>
       </c>
       <c r="P16" t="n">
-        <v>295.631773306625</v>
+        <v>295.6317733066232</v>
       </c>
       <c r="Q16" t="n">
         <v>120.4022572998984</v>
@@ -35957,19 +35957,19 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>211.4890361370312</v>
       </c>
       <c r="L18" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
-        <v>592.1338044402481</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
         <v>633.9373369238452</v>
@@ -35981,10 +35981,10 @@
         <v>427.9021712071395</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36054,7 +36054,7 @@
         <v>421.6261329899074</v>
       </c>
       <c r="O19" t="n">
-        <v>373.2618997060445</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P19" t="n">
         <v>295.631773306625</v>
@@ -36124,7 +36124,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L20" t="n">
-        <v>632.0799921462693</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M20" t="n">
         <v>735.3001107902948</v>
@@ -36203,25 +36203,25 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>603.4126137641938</v>
+        <v>455.0369220524547</v>
       </c>
       <c r="N21" t="n">
-        <v>285.3607779319999</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36379,7 +36379,7 @@
         <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902408</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,28 +36431,28 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K24" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>481.5356082478342</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N24" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36674,19 +36674,19 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
-        <v>500.328895167433</v>
+        <v>108.4053175402704</v>
       </c>
       <c r="M27" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
-        <v>462.2005856280628</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
         <v>427.9021712071395</v>
@@ -36826,34 +36826,34 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K29" t="n">
-        <v>479.4543240367756</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L29" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M29" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N29" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O29" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P29" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q29" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R29" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,28 +36908,28 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K30" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L30" t="n">
-        <v>481.5356082478342</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M30" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O30" t="n">
-        <v>0</v>
+        <v>22.33282074962425</v>
       </c>
       <c r="P30" t="n">
-        <v>427.9021712071396</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
         <v>0</v>
@@ -36987,22 +36987,22 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K31" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L31" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M31" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N31" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O31" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P31" t="n">
         <v>295.631773306625</v>
@@ -37063,34 +37063,34 @@
         <v>0</v>
       </c>
       <c r="I32" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J32" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K32" t="n">
-        <v>479.4543240367771</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L32" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M32" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902952</v>
       </c>
       <c r="N32" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O32" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P32" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,31 +37145,31 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>337.2977496678996</v>
+        <v>243.7989988974575</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
-        <v>285.3607779319995</v>
+        <v>0</v>
       </c>
       <c r="O33" t="n">
-        <v>557.48457599928</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071396</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625076</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789214</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,25 +37227,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O34" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P34" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
-        <v>285.3607779319999</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37464,10 +37464,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K37" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L37" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M37" t="n">
         <v>450.5570744930848</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N39" t="n">
-        <v>285.3607779319999</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37701,10 +37701,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L40" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M40" t="n">
         <v>450.5570744930848</v>
@@ -37719,7 +37719,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>318.5044627483008</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>603.4126137641938</v>
+        <v>302.093457676271</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>0</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>0</v>
@@ -37938,10 +37938,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M43" t="n">
         <v>450.5570744930848</v>
@@ -38102,16 +38102,16 @@
         <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>603.4126137641938</v>
+        <v>508.128623392977</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,25 +38175,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
-        <v>450.5570744930848</v>
+        <v>450.5570744930849</v>
       </c>
       <c r="N46" t="n">
-        <v>445.9107804819471</v>
+        <v>445.9107804819472</v>
       </c>
       <c r="O46" t="n">
-        <v>397.5465471980851</v>
+        <v>397.5465471980852</v>
       </c>
       <c r="P46" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q46" t="n">
-        <v>144.686904791938</v>
+        <v>144.6869047919381</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
